--- a/Classes/Week 04 - Vectors and Transforms/Transform Spreadsheet.xlsx
+++ b/Classes/Week 04 - Vectors and Transforms/Transform Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_LOCAL\GitHub\DP2\Classes\Week 04 - Vectors and Transforms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A3237B-5E7B-476E-B56D-A3D30565D00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AECFB4-8ACA-4281-B074-6E3A721BE715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{BFAE6173-D820-455E-8F77-16083E87413B}"/>
   </bookViews>
@@ -2213,7 +2213,7 @@
   <dimension ref="A2:AH30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3522,7 +3522,7 @@
   <dimension ref="A2:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3649,18 +3649,18 @@
         <f t="array" ref="J4:J7">MMULT(B4:E7,H4:H7)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="43" t="e">
         <f t="array" ref="M4:P7">MINVERSE(B4:E7)</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="44">
-        <v>0</v>
-      </c>
-      <c r="O4" s="45">
-        <v>0</v>
-      </c>
-      <c r="P4" s="26">
-        <v>0</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="N4" s="44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O4" s="45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P4" s="26" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
@@ -3684,17 +3684,17 @@
       <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="M5" s="46">
-        <v>0</v>
-      </c>
-      <c r="N5" s="47">
-        <v>1</v>
-      </c>
-      <c r="O5" s="48">
-        <v>0</v>
-      </c>
-      <c r="P5" s="27">
-        <v>0</v>
+      <c r="M5" s="46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N5" s="47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O5" s="48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" s="27" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3718,17 +3718,17 @@
       <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="M6" s="49">
-        <v>0</v>
-      </c>
-      <c r="N6" s="50">
-        <v>0</v>
-      </c>
-      <c r="O6" s="51">
-        <v>1</v>
-      </c>
-      <c r="P6" s="27">
-        <v>0</v>
+      <c r="M6" s="49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N6" s="50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O6" s="51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P6" s="27" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3739,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="53"/>
       <c r="H7" s="28">
@@ -3750,19 +3750,19 @@
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="28">
-        <v>0</v>
-      </c>
-      <c r="N7" s="29">
-        <v>0</v>
-      </c>
-      <c r="O7" s="29">
-        <v>0</v>
-      </c>
-      <c r="P7" s="25">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N7" s="29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O7" s="29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P7" s="25" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="E8" s="3">
         <f>MDETERM(B4:E7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>11</v>
@@ -3882,18 +3882,18 @@
       <c r="V11" s="26">
         <v>0</v>
       </c>
-      <c r="Y11" s="43">
+      <c r="Y11" s="43" t="e">
         <f t="array" ref="Y11:AB14">MINVERSE(S11:V14)</f>
-        <v>1</v>
-      </c>
-      <c r="Z11" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="45">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="26">
-        <v>0</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z11" s="44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA11" s="45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB11" s="26" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
@@ -3941,17 +3941,17 @@
       <c r="V12" s="27">
         <v>0</v>
       </c>
-      <c r="Y12" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="48">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="27">
-        <v>0</v>
+      <c r="Y12" s="46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z12" s="47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA12" s="48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB12" s="27" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3999,17 +3999,17 @@
       <c r="V13" s="27">
         <v>0</v>
       </c>
-      <c r="Y13" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="50">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="27">
-        <v>0</v>
+      <c r="Y13" s="49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z13" s="50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA13" s="51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB13" s="27" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4052,22 +4052,22 @@
         <v>0</v>
       </c>
       <c r="U14" s="29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V14" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="25">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z14" s="29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA14" s="29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB14" s="25" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -4215,18 +4215,18 @@
       <c r="V18" s="26">
         <v>0</v>
       </c>
-      <c r="Y18" s="43">
+      <c r="Y18" s="43" t="e">
         <f t="array" ref="Y18:AB21">MINVERSE(S18:V21)</f>
-        <v>1</v>
-      </c>
-      <c r="Z18" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="45">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="26">
-        <v>0</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z18" s="44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA18" s="45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB18" s="26" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
@@ -4274,17 +4274,17 @@
       <c r="V19" s="27">
         <v>0</v>
       </c>
-      <c r="Y19" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="48">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="27">
-        <v>0</v>
+      <c r="Y19" s="46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z19" s="47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA19" s="48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB19" s="27" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4332,17 +4332,17 @@
       <c r="V20" s="27">
         <v>0</v>
       </c>
-      <c r="Y20" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="50">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="27">
-        <v>0</v>
+      <c r="Y20" s="49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z20" s="50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA20" s="51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB20" s="27" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4385,22 +4385,22 @@
         <v>0</v>
       </c>
       <c r="U21" s="29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V21" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="25">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z21" s="29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA21" s="29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB21" s="25" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
@@ -4549,18 +4549,18 @@
       <c r="V25" s="26">
         <v>0</v>
       </c>
-      <c r="Y25" s="43">
+      <c r="Y25" s="43" t="e">
         <f t="array" ref="Y25:AB28">MINVERSE(S25:V28)</f>
-        <v>1</v>
-      </c>
-      <c r="Z25" s="44">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="45">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="26">
-        <v>0</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z25" s="44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA25" s="45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB25" s="26" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
@@ -4608,17 +4608,17 @@
       <c r="V26" s="27">
         <v>0</v>
       </c>
-      <c r="Y26" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="48">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="27">
-        <v>0</v>
+      <c r="Y26" s="46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z26" s="47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA26" s="48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB26" s="27" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4666,17 +4666,17 @@
       <c r="V27" s="27">
         <v>0</v>
       </c>
-      <c r="Y27" s="49">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="50">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="27">
-        <v>0</v>
+      <c r="Y27" s="49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z27" s="50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA27" s="51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB27" s="27" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4719,22 +4719,22 @@
         <v>0</v>
       </c>
       <c r="U28" s="29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V28" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="25">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z28" s="29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA28" s="29" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB28" s="25" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
